--- a/CSV/SUPPLY_DATAFRAME_SVERRE.xlsx
+++ b/CSV/SUPPLY_DATAFRAME_SVERRE.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9d71f9bda8fdeb6/Dokumenter/NTNU notater/10.semester/Masteroppgave^J Sigurd og Lars/structuralCircle/CSV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu.sharepoint.com/sites/o365_Artur-PhD/Shared Documents/General/Presentations and publications/2022.xx Oslo reuse project, mapping algorithm/Paper development/Data from IFC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_60A134875BC0DA6C0F3B2B11595ED87656CD5FFD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25B999A8-188C-4617-B407-C4A9A7B707CE}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{DB4C8E52-98F0-43C5-AF5B-F510FB6E97C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B783B001-D00D-43E3-8550-7A4CA38C68AE}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="120">
   <si>
     <t>Guid</t>
   </si>
@@ -43,94 +56,310 @@
     <t>Longitude</t>
   </si>
   <si>
+    <t>3fv9Tll3nCJw5Izn0UdKph</t>
+  </si>
+  <si>
+    <t>Steel ASTM A992</t>
+  </si>
+  <si>
+    <t>Håkon Magnussons gate 1A,7041,Trondheim,Norway</t>
+  </si>
+  <si>
+    <t>3fv9Tll3nCJw5Izn0UdKp0</t>
+  </si>
+  <si>
+    <t>3fv9Tll3nCJw5Izn0UdK_N</t>
+  </si>
+  <si>
+    <t>3fv9Tll3nCJw5Izn0UdK$z</t>
+  </si>
+  <si>
+    <t>0OnxKnweDAt9hOIopLidJX</t>
+  </si>
+  <si>
     <t>0OnxKnweDAt9hOIopLidKD</t>
   </si>
   <si>
-    <t>Steel ASTM A992</t>
-  </si>
-  <si>
-    <t>Sognsveien 17,0855,Oslo,Norway</t>
-  </si>
-  <si>
     <t>0OnxKnweDAt9hOIopLidLA</t>
   </si>
   <si>
     <t>0OnxKnweDAt9hOIopLidMG</t>
   </si>
   <si>
+    <t>0OnxKnweDAt9hOIopLidSv</t>
+  </si>
+  <si>
+    <t>0OnxKnweDAt9hOIopLidSY</t>
+  </si>
+  <si>
+    <t>0OnxKnweDAt9hOIopLidck</t>
+  </si>
+  <si>
+    <t>0OnxKnweDAt9hOIopLiddI</t>
+  </si>
+  <si>
+    <t>0OnxKnweDAt9hOIopLidd7</t>
+  </si>
+  <si>
+    <t>0OnxKnweDAt9hOIopLiddb</t>
+  </si>
+  <si>
+    <t>0OnxKnweDAt9hOIopLide7</t>
+  </si>
+  <si>
+    <t>0OnxKnweDAt9hOIopLideb</t>
+  </si>
+  <si>
+    <t>03H1dvp691Fwcf0Q0cbSr_</t>
+  </si>
+  <si>
+    <t>03H1dvp691Fwcf0Q0cbSqV</t>
+  </si>
+  <si>
     <t>03H1dvp691Fwcf0Q0cbSsr</t>
   </si>
   <si>
     <t>03H1dvp691Fwcf0Q0cbSsg</t>
   </si>
   <si>
+    <t>03H1dvp691Fwcf0Q0cbSD2</t>
+  </si>
+  <si>
+    <t>03H1dvp691Fwcf0Q0cbSDy</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL2ut</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL2uM</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL2vk</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL2vD</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL2cl</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL2dk</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL2aq</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL2aA</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL2bd</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL2b3</t>
+  </si>
+  <si>
     <t>0kTb0TZwHDjvozVD5oL2Zm</t>
   </si>
   <si>
     <t>0kTb0TZwHDjvozVD5oL2ZO</t>
   </si>
   <si>
-    <t>2xDcwmu1P1$BEvOzObcacp</t>
-  </si>
-  <si>
-    <t>2xDcwmu1P1$BEvOzObcacP</t>
-  </si>
-  <si>
-    <t>2xDcwmu1P1$BEvOzObcadq</t>
-  </si>
-  <si>
-    <t>2xDcwmu1P1$BEvOzObcadV</t>
-  </si>
-  <si>
-    <t>00NXEnEOv6AhVEvEWV4X29</t>
-  </si>
-  <si>
-    <t>2Ei2TUNq5A5uP_5j7Za1Vx</t>
-  </si>
-  <si>
-    <t>2Ei2TUNq5A5uP_5j7Za1Vy</t>
-  </si>
-  <si>
-    <t>2Ei2TUNq5A5uP_5j7Za1Vz</t>
-  </si>
-  <si>
-    <t>2Ei2TUNq5A5uP_5j7Za1V_</t>
-  </si>
-  <si>
-    <t>2Ei2TUNq5A5uP_5j7Za1Pv</t>
-  </si>
-  <si>
-    <t>2Ei2TUNq5A5uP_5j7Za1Pw</t>
-  </si>
-  <si>
-    <t>2Ei2TUNq5A5uP_5j7Za1Px</t>
-  </si>
-  <si>
-    <t>2Ei2TUNq5A5uP_5j7Za1Py</t>
-  </si>
-  <si>
-    <t>2Ei2TUNq5A5uP_5j7Za14h</t>
-  </si>
-  <si>
-    <t>2Ei2TUNq5A5uP_5j7Za14i</t>
-  </si>
-  <si>
-    <t>2Ei2TUNq5A5uP_5j7Za14j</t>
-  </si>
-  <si>
-    <t>2Ei2TUNq5A5uP_5j7Za14k</t>
-  </si>
-  <si>
-    <t>2Ei2TUNq5A5uP_5j7Za17M</t>
-  </si>
-  <si>
-    <t>2Ei2TUNq5A5uP_5j7Za17N</t>
-  </si>
-  <si>
-    <t>2Ei2TUNq5A5uP_5j7Za17O</t>
-  </si>
-  <si>
-    <t>2Ei2TUNq5A5uP_5j7Za17P</t>
+    <t>0kTb0TZwHDjvozVD5oL2gn</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL2gR</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL2hs</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL2hT</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL2fv</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL2fu</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL2fx</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL2fw</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL2fL</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL2fK</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL2fN</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL2fM</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5Mm</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5Mp</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5Mo</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5Mr</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5MU</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5NX</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5NW</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5NZ</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5NY</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5Nb</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5Na</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5Nd</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5Nc</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5Nf</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5Ne</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5Nh</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5Ng</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5Nj</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5Ni</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5Nl</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5Ns</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5Nv</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5Nu</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5Nx</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5Nw</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5Nz</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5Ny</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5N$</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5N_</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5N1</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5N0</t>
+  </si>
+  <si>
+    <t>0kTb0TZwHDjvozVD5oL5N3</t>
+  </si>
+  <si>
+    <t>280LrLHfXBWPCFVfHB$F3H</t>
+  </si>
+  <si>
+    <t>280LrLHfXBWPCFVfHB$F3G</t>
+  </si>
+  <si>
+    <t>280LrLHfXBWPCFVfHB$F3J</t>
+  </si>
+  <si>
+    <t>280LrLHfXBWPCFVfHB$F3I</t>
+  </si>
+  <si>
+    <t>280LrLHfXBWPCFVfHB$F3L</t>
+  </si>
+  <si>
+    <t>280LrLHfXBWPCFVfHB$F3N</t>
+  </si>
+  <si>
+    <t>280LrLHfXBWPCFVfHB$F2f</t>
+  </si>
+  <si>
+    <t>280LrLHfXBWPCFVfHB$F2e</t>
+  </si>
+  <si>
+    <t>280LrLHfXBWPCFVfHB$F2h</t>
+  </si>
+  <si>
+    <t>280LrLHfXBWPCFVfHB$F2g</t>
+  </si>
+  <si>
+    <t>280LrLHfXBWPCFVfHB$F2W</t>
+  </si>
+  <si>
+    <t>280LrLHfXBWPCFVfHB$F2Z</t>
+  </si>
+  <si>
+    <t>280LrLHfXBWPCFVfHB$F2Y</t>
+  </si>
+  <si>
+    <t>280LrLHfXBWPCFVfHB$F2b</t>
+  </si>
+  <si>
+    <t>280LrLHfXBWPCFVfHB$F2a</t>
+  </si>
+  <si>
+    <t>280LrLHfXBWPCFVfHB$F2d</t>
+  </si>
+  <si>
+    <t>280LrLHfXBWPCFVfHB$F2c</t>
+  </si>
+  <si>
+    <t>280LrLHfXBWPCFVfHB$F2v</t>
+  </si>
+  <si>
+    <t>280LrLHfXBWPCFVfHB$F2u</t>
+  </si>
+  <si>
+    <t>280LrLHfXBWPCFVfHB$F2x</t>
+  </si>
+  <si>
+    <t>280LrLHfXBWPCFVfHB$F2w</t>
+  </si>
+  <si>
+    <t>280LrLHfXBWPCFVfHB$F2z</t>
   </si>
   <si>
     <t>3fv9Tll3nCJw5Izn0UdNXG</t>
@@ -142,6 +371,15 @@
     <t>3fv9Tll3nCJw5Izn0UdN4g</t>
   </si>
   <si>
+    <t>3fv9Tll3nCJw5Izn0UdN0O</t>
+  </si>
+  <si>
+    <t>3fv9Tll3nCJw5Izn0UdN0Q</t>
+  </si>
+  <si>
+    <t>3fv9Tll3nCJw5Izn0UdN1a</t>
+  </si>
+  <si>
     <t>3fv9Tll3nCJw5Izn0UdNEX</t>
   </si>
   <si>
@@ -152,6 +390,9 @@
   </si>
   <si>
     <t>Moment of Inertia [m^4]</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -216,7 +457,73 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -231,6 +538,26 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{826E4C58-32A2-4F3C-9BAE-C71F7727EDFB}" name="Table1" displayName="Table1" ref="A1:I110" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:I110" xr:uid="{826E4C58-32A2-4F3C-9BAE-C71F7727EDFB}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{CCEF95B9-8936-4226-9512-38FDFD6FBD6C}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D741BEFF-765E-4F67-B25B-69A4A49E203C}" name="Guid"/>
+    <tableColumn id="3" xr3:uid="{791006B7-7A8E-4256-A9CF-B70F19AFD53D}" name="Length [m]"/>
+    <tableColumn id="4" xr3:uid="{C5F84D11-3659-4FE6-AAA4-C603D59028E0}" name="Area [m^2]"/>
+    <tableColumn id="5" xr3:uid="{F70CBD87-A151-4DC8-8625-550ADDF46ACC}" name="Moment of Inertia [m^4]" dataDxfId="0">
+      <calculatedColumnFormula>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{06227CDD-7742-43E9-AA7A-577338EBE4AB}" name="Material"/>
+    <tableColumn id="7" xr3:uid="{CD7E7211-F41E-47EB-95ED-7F4CE0D97F7B}" name="Location"/>
+    <tableColumn id="8" xr3:uid="{5F1DE09F-A400-4865-83BD-0B9184FFBB2B}" name="Latitude"/>
+    <tableColumn id="9" xr3:uid="{BC0B2F98-80AA-4994-96BE-0A4914CAB72B}" name="Longitude"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -518,18 +845,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -555,7 +893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -563,10 +901,14 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>7.7205999999999992</v>
+        <v>7.7205999999999966</v>
       </c>
       <c r="D2">
-        <v>9.6936369259886561</v>
+        <v>9.6936369260000686E-3</v>
+      </c>
+      <c r="E2">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377593372E-6</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -575,13 +917,13 @@
         <v>9</v>
       </c>
       <c r="H2">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I2">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -589,10 +931,14 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>7.7205999999999992</v>
+        <v>7.7205999999999966</v>
       </c>
       <c r="D3">
-        <v>9.6936369259886561</v>
+        <v>9.6936369260000686E-3</v>
+      </c>
+      <c r="E3">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377593372E-6</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -601,13 +947,13 @@
         <v>9</v>
       </c>
       <c r="H3">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I3">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -615,10 +961,14 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>7.7205999999999992</v>
+        <v>7.8603000000000014</v>
       </c>
       <c r="D4">
-        <v>9.6936369259886934</v>
+        <v>9.8688594901303727E-3</v>
+      </c>
+      <c r="E4">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.1161989696613594E-6</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -627,13 +977,13 @@
         <v>9</v>
       </c>
       <c r="H4">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I4">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -641,10 +991,14 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>7.7205999999999966</v>
+        <v>8.1544193049528317</v>
       </c>
       <c r="D5">
-        <v>9.1023109033614027</v>
+        <v>1.0237766711132001E-2</v>
+      </c>
+      <c r="E5">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.7343222692968789E-6</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -653,13 +1007,13 @@
         <v>9</v>
       </c>
       <c r="H5">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I5">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -667,10 +1021,14 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>7.7205999999999966</v>
+        <v>7.7205999999999992</v>
       </c>
       <c r="D6">
-        <v>9.1023109033526044</v>
+        <v>9.6936369259886558E-3</v>
+      </c>
+      <c r="E6">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.830549737740899E-6</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -679,13 +1037,13 @@
         <v>9</v>
       </c>
       <c r="H6">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I6">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -693,10 +1051,14 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>7.7205999999999966</v>
+        <v>7.7205999999999992</v>
       </c>
       <c r="D7">
-        <v>9.1023109033525778</v>
+        <v>9.6936369259886558E-3</v>
+      </c>
+      <c r="E7">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.830549737740899E-6</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -705,13 +1067,13 @@
         <v>9</v>
       </c>
       <c r="H7">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I7">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -719,10 +1081,14 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>7.7205999999999966</v>
+        <v>7.7205999999999992</v>
       </c>
       <c r="D8">
-        <v>9.1023109033614915</v>
+        <v>9.6936369259886558E-3</v>
+      </c>
+      <c r="E8">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.830549737740899E-6</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -731,13 +1097,13 @@
         <v>9</v>
       </c>
       <c r="H8">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I8">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -745,10 +1111,14 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>7.8097539999999972</v>
+        <v>7.7205999999999992</v>
       </c>
       <c r="D9">
-        <v>9.8054607805513765</v>
+        <v>9.693636925988694E-3</v>
+      </c>
+      <c r="E9">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.83054973774096E-6</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -757,13 +1127,13 @@
         <v>9</v>
       </c>
       <c r="H9">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I9">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -771,10 +1141,14 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>7.8097539999999963</v>
+        <v>7.7205999999999966</v>
       </c>
       <c r="D10">
-        <v>9.8054607805513747</v>
+        <v>9.6936369259886541E-3</v>
+      </c>
+      <c r="E10">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377408956E-6</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -783,13 +1157,13 @@
         <v>9</v>
       </c>
       <c r="H10">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I10">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -797,10 +1171,14 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>7.8097539999999972</v>
+        <v>7.7205999999999966</v>
       </c>
       <c r="D11">
-        <v>9.8054607805513765</v>
+        <v>9.693636925988694E-3</v>
+      </c>
+      <c r="E11">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.83054973774096E-6</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -809,13 +1187,13 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I11">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -823,10 +1201,14 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>7.8097539999999963</v>
+        <v>7.7205999999999992</v>
       </c>
       <c r="D12">
-        <v>9.8054607805513747</v>
+        <v>9.6936369259886766E-3</v>
+      </c>
+      <c r="E12">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377409329E-6</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -835,13 +1217,13 @@
         <v>9</v>
       </c>
       <c r="H12">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I12">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -849,10 +1231,14 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>7.7205999999999992</v>
+        <v>7.7205999999999966</v>
       </c>
       <c r="D13">
-        <v>9.6936369259886757</v>
+        <v>9.6936369259886732E-3</v>
+      </c>
+      <c r="E13">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377409261E-6</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -861,13 +1247,13 @@
         <v>9</v>
       </c>
       <c r="H13">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I13">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -875,10 +1261,14 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>7.9999999999999956</v>
+        <v>7.7205999999999992</v>
       </c>
       <c r="D14">
-        <v>10.044082054247941</v>
+        <v>9.6936369259886749E-3</v>
+      </c>
+      <c r="E14">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377409295E-6</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -887,13 +1277,13 @@
         <v>9</v>
       </c>
       <c r="H14">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I14">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -901,10 +1291,14 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>7.9999999999999956</v>
+        <v>7.7205999999999992</v>
       </c>
       <c r="D15">
-        <v>10.04408205424795</v>
+        <v>9.6936369259886766E-3</v>
+      </c>
+      <c r="E15">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377409329E-6</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -913,13 +1307,13 @@
         <v>9</v>
       </c>
       <c r="H15">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I15">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -927,10 +1321,14 @@
         <v>23</v>
       </c>
       <c r="C16">
-        <v>7.9999999999999956</v>
+        <v>7.7205999999999992</v>
       </c>
       <c r="D16">
-        <v>10.044082054247941</v>
+        <v>9.6936369259887148E-3</v>
+      </c>
+      <c r="E16">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377409939E-6</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -939,13 +1337,13 @@
         <v>9</v>
       </c>
       <c r="H16">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I16">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -953,10 +1351,14 @@
         <v>24</v>
       </c>
       <c r="C17">
-        <v>7.9999999999999938</v>
+        <v>7.7205999999999992</v>
       </c>
       <c r="D17">
-        <v>10.0440820542479</v>
+        <v>9.6936369259887148E-3</v>
+      </c>
+      <c r="E17">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377409939E-6</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -965,13 +1367,13 @@
         <v>9</v>
       </c>
       <c r="H17">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I17">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -979,10 +1381,14 @@
         <v>25</v>
       </c>
       <c r="C18">
-        <v>7.9999999999999947</v>
+        <v>7.7205999999999966</v>
       </c>
       <c r="D18">
-        <v>10.044082054247941</v>
+        <v>9.6936369260000477E-3</v>
+      </c>
+      <c r="E18">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377593033E-6</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -991,13 +1397,13 @@
         <v>9</v>
       </c>
       <c r="H18">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I18">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1005,10 +1411,14 @@
         <v>26</v>
       </c>
       <c r="C19">
-        <v>7.9999999999999956</v>
+        <v>7.7205999999999966</v>
       </c>
       <c r="D19">
-        <v>10.04408205424795</v>
+        <v>9.6936369260000477E-3</v>
+      </c>
+      <c r="E19">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377593033E-6</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -1017,13 +1427,13 @@
         <v>9</v>
       </c>
       <c r="H19">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I19">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1031,10 +1441,14 @@
         <v>27</v>
       </c>
       <c r="C20">
-        <v>7.9999999999999947</v>
+        <v>7.7205999999999966</v>
       </c>
       <c r="D20">
-        <v>10.044082054247941</v>
+        <v>9.6936369260000495E-3</v>
+      </c>
+      <c r="E20">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377593067E-6</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -1043,13 +1457,13 @@
         <v>9</v>
       </c>
       <c r="H20">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I20">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1057,10 +1471,14 @@
         <v>28</v>
       </c>
       <c r="C21">
-        <v>7.9999999999999947</v>
+        <v>7.7205999999999966</v>
       </c>
       <c r="D21">
-        <v>10.044082054247911</v>
+        <v>9.6936369260000477E-3</v>
+      </c>
+      <c r="E21">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377593033E-6</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -1069,13 +1487,13 @@
         <v>9</v>
       </c>
       <c r="H21">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I21">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1083,10 +1501,14 @@
         <v>29</v>
       </c>
       <c r="C22">
-        <v>7.8097539999999981</v>
+        <v>7.7205999999999966</v>
       </c>
       <c r="D22">
-        <v>9.8054607805511811</v>
+        <v>9.6936369260000668E-3</v>
+      </c>
+      <c r="E22">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377593338E-6</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -1095,13 +1517,13 @@
         <v>9</v>
       </c>
       <c r="H22">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I22">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1109,10 +1531,14 @@
         <v>30</v>
       </c>
       <c r="C23">
-        <v>7.8097539999999972</v>
+        <v>7.7205999999999966</v>
       </c>
       <c r="D23">
-        <v>9.8054607805514085</v>
+        <v>9.6936369260000668E-3</v>
+      </c>
+      <c r="E23">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377593338E-6</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -1121,13 +1547,13 @@
         <v>9</v>
       </c>
       <c r="H23">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I23">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1135,10 +1561,14 @@
         <v>31</v>
       </c>
       <c r="C24">
-        <v>7.8097539999999981</v>
+        <v>7.7205999999999992</v>
       </c>
       <c r="D24">
-        <v>9.8054607805514085</v>
+        <v>9.6936369259886766E-3</v>
+      </c>
+      <c r="E24">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377409329E-6</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -1147,13 +1577,13 @@
         <v>9</v>
       </c>
       <c r="H24">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I24">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1161,10 +1591,14 @@
         <v>32</v>
       </c>
       <c r="C25">
-        <v>7.8097539999999963</v>
+        <v>7.7205999999999992</v>
       </c>
       <c r="D25">
-        <v>9.8054607805514085</v>
+        <v>9.6936369259886749E-3</v>
+      </c>
+      <c r="E25">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377409295E-6</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
@@ -1173,13 +1607,13 @@
         <v>9</v>
       </c>
       <c r="H25">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I25">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1187,10 +1621,14 @@
         <v>33</v>
       </c>
       <c r="C26">
-        <v>7.9999999999999956</v>
+        <v>7.7205999999999992</v>
       </c>
       <c r="D26">
-        <v>10.04408205424795</v>
+        <v>9.6936369259887148E-3</v>
+      </c>
+      <c r="E26">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377409939E-6</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
@@ -1199,13 +1637,13 @@
         <v>9</v>
       </c>
       <c r="H26">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I26">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1213,10 +1651,14 @@
         <v>34</v>
       </c>
       <c r="C27">
-        <v>7.9999999999999973</v>
+        <v>7.7205999999999992</v>
       </c>
       <c r="D27">
-        <v>10.0440820542479</v>
+        <v>9.6936369259887148E-3</v>
+      </c>
+      <c r="E27">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377409939E-6</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
@@ -1225,13 +1667,13 @@
         <v>9</v>
       </c>
       <c r="H27">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I27">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1239,10 +1681,14 @@
         <v>35</v>
       </c>
       <c r="C28">
-        <v>7.9999999999999956</v>
+        <v>7.7205999999999992</v>
       </c>
       <c r="D28">
-        <v>10.04408205424795</v>
+        <v>9.6936369259886766E-3</v>
+      </c>
+      <c r="E28">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377409329E-6</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
@@ -1251,13 +1697,13 @@
         <v>9</v>
       </c>
       <c r="H28">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I28">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1265,10 +1711,14 @@
         <v>36</v>
       </c>
       <c r="C29">
-        <v>7.9999999999999956</v>
+        <v>7.7205999999999966</v>
       </c>
       <c r="D29">
-        <v>10.0440820542479</v>
+        <v>9.6936369260000668E-3</v>
+      </c>
+      <c r="E29">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377593338E-6</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
@@ -1277,13 +1727,13 @@
         <v>9</v>
       </c>
       <c r="H29">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I29">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1291,10 +1741,14 @@
         <v>37</v>
       </c>
       <c r="C30">
-        <v>3.1</v>
+        <v>7.7205999999999966</v>
       </c>
       <c r="D30">
-        <v>4.6213798266582264</v>
+        <v>9.6936369260000668E-3</v>
+      </c>
+      <c r="E30">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377593338E-6</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
@@ -1303,13 +1757,13 @@
         <v>9</v>
       </c>
       <c r="H30">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I30">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1317,10 +1771,14 @@
         <v>38</v>
       </c>
       <c r="C31">
-        <v>5.5</v>
+        <v>7.7205999999999966</v>
       </c>
       <c r="D31">
-        <v>8.1847969516294388</v>
+        <v>9.6936369260000668E-3</v>
+      </c>
+      <c r="E31">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377593338E-6</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
@@ -1329,13 +1787,13 @@
         <v>9</v>
       </c>
       <c r="H31">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I31">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1343,10 +1801,14 @@
         <v>39</v>
       </c>
       <c r="C32">
-        <v>3.1</v>
+        <v>7.7205999999999966</v>
       </c>
       <c r="D32">
-        <v>4.6213798266582264</v>
+        <v>9.6936369260000668E-3</v>
+      </c>
+      <c r="E32">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377593338E-6</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
@@ -1355,13 +1817,13 @@
         <v>9</v>
       </c>
       <c r="H32">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I32">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1369,10 +1831,14 @@
         <v>40</v>
       </c>
       <c r="C33">
-        <v>3.1</v>
+        <v>7.7205999999999966</v>
       </c>
       <c r="D33">
-        <v>4.6213798266582264</v>
+        <v>9.6936369260000651E-3</v>
+      </c>
+      <c r="E33">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377593321E-6</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
@@ -1381,13 +1847,13 @@
         <v>9</v>
       </c>
       <c r="H33">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I33">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1395,10 +1861,14 @@
         <v>41</v>
       </c>
       <c r="C34">
-        <v>5.5</v>
+        <v>7.7205999999999966</v>
       </c>
       <c r="D34">
-        <v>8.1847969516294388</v>
+        <v>9.6936369260000529E-3</v>
+      </c>
+      <c r="E34">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377593135E-6</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
@@ -1407,13 +1877,13 @@
         <v>9</v>
       </c>
       <c r="H34">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I34">
-        <v>10.729945182777779</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1421,10 +1891,14 @@
         <v>42</v>
       </c>
       <c r="C35">
-        <v>3.1</v>
+        <v>7.7205999999999966</v>
       </c>
       <c r="D35">
-        <v>4.6213798266582264</v>
+        <v>9.6936369260000512E-3</v>
+      </c>
+      <c r="E35">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377593101E-6</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
@@ -1433,13 +1907,2568 @@
         <v>9</v>
       </c>
       <c r="H35">
-        <v>59.941616058333331</v>
+        <v>63.444637298333333</v>
       </c>
       <c r="I35">
-        <v>10.729945182777779</v>
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36">
+        <v>7.8097539999999972</v>
+      </c>
+      <c r="D36">
+        <v>9.8054607805513772E-3</v>
+      </c>
+      <c r="E36">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932442682E-6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I36">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D37">
+        <v>9.8054607805513755E-3</v>
+      </c>
+      <c r="E37">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932442648E-6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I37">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38">
+        <v>7.8097539999999972</v>
+      </c>
+      <c r="D38">
+        <v>9.8054607805513772E-3</v>
+      </c>
+      <c r="E38">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932442682E-6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I38">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D39">
+        <v>9.8054607805513755E-3</v>
+      </c>
+      <c r="E39">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932442648E-6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I39">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40">
+        <v>7.8097539999999972</v>
+      </c>
+      <c r="D40">
+        <v>9.8054607805514084E-3</v>
+      </c>
+      <c r="E40">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.012255093244319E-6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I40">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D41">
+        <v>9.8054607805514084E-3</v>
+      </c>
+      <c r="E41">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.012255093244319E-6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I41">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42">
+        <v>7.8097539999999972</v>
+      </c>
+      <c r="D42">
+        <v>9.8054607805514084E-3</v>
+      </c>
+      <c r="E42">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.012255093244319E-6</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I42">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D43">
+        <v>9.8054607805511708E-3</v>
+      </c>
+      <c r="E43">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932439311E-6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I43">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D44">
+        <v>9.8054607805514084E-3</v>
+      </c>
+      <c r="E44">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.012255093244319E-6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I44">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D45">
+        <v>9.8054607805514084E-3</v>
+      </c>
+      <c r="E45">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.012255093244319E-6</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I45">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D46">
+        <v>9.8054607805514084E-3</v>
+      </c>
+      <c r="E46">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.012255093244319E-6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I46">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47">
+        <v>7.8097539999999972</v>
+      </c>
+      <c r="D47">
+        <v>9.8054607805511708E-3</v>
+      </c>
+      <c r="E47">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932439311E-6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I47">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D48">
+        <v>9.8054607805513755E-3</v>
+      </c>
+      <c r="E48">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932442648E-6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I48">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D49">
+        <v>9.8054607805513755E-3</v>
+      </c>
+      <c r="E49">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932442648E-6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I49">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D50">
+        <v>9.8054607805513755E-3</v>
+      </c>
+      <c r="E50">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932442648E-6</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I50">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51">
+        <v>7.8097539999999972</v>
+      </c>
+      <c r="D51">
+        <v>9.8054607805513772E-3</v>
+      </c>
+      <c r="E51">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932442682E-6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I51">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52">
+        <v>7.8097539999999972</v>
+      </c>
+      <c r="D52">
+        <v>9.8054607805513928E-3</v>
+      </c>
+      <c r="E52">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932442936E-6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I52">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D53">
+        <v>9.8054607805513911E-3</v>
+      </c>
+      <c r="E53">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932442902E-6</v>
+      </c>
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I53">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54">
+        <v>7.8097539999999972</v>
+      </c>
+      <c r="D54">
+        <v>9.8054607805513928E-3</v>
+      </c>
+      <c r="E54">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932442936E-6</v>
+      </c>
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I54">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D55">
+        <v>9.8054607805513911E-3</v>
+      </c>
+      <c r="E55">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932442902E-6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I55">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56">
+        <v>7.8097539999999972</v>
+      </c>
+      <c r="D56">
+        <v>9.8054607805514275E-3</v>
+      </c>
+      <c r="E56">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932443495E-6</v>
+      </c>
+      <c r="F56" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I56">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D57">
+        <v>9.8054607805514258E-3</v>
+      </c>
+      <c r="E57">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932443478E-6</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I57">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58">
+        <v>7.8097539999999972</v>
+      </c>
+      <c r="D58">
+        <v>9.8054607805514275E-3</v>
+      </c>
+      <c r="E58">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932443495E-6</v>
+      </c>
+      <c r="F58" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I58">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D59">
+        <v>9.8054607805511864E-3</v>
+      </c>
+      <c r="E59">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932439565E-6</v>
+      </c>
+      <c r="F59" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I59">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60">
+        <v>7.9048769999999982</v>
+      </c>
+      <c r="D60">
+        <v>9.9247714173996901E-3</v>
+      </c>
+      <c r="E60">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.2084239739694882E-6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I60">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61">
+        <v>7.9048769999999964</v>
+      </c>
+      <c r="D61">
+        <v>9.9247714173996884E-3</v>
+      </c>
+      <c r="E61">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.2084239739694848E-6</v>
+      </c>
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I61">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D62">
+        <v>9.8054607805514258E-3</v>
+      </c>
+      <c r="E62">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932443478E-6</v>
+      </c>
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I62">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63">
+        <v>7.8097539999999972</v>
+      </c>
+      <c r="D63">
+        <v>9.8054607805511899E-3</v>
+      </c>
+      <c r="E63">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932439616E-6</v>
+      </c>
+      <c r="F63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I63">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64">
+        <v>7.9048769999999982</v>
+      </c>
+      <c r="D64">
+        <v>9.9247714173996537E-3</v>
+      </c>
+      <c r="E64">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.2084239739694272E-6</v>
+      </c>
+      <c r="F64" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I64">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65">
+        <v>7.9048769999999964</v>
+      </c>
+      <c r="D65">
+        <v>9.9247714173996519E-3</v>
+      </c>
+      <c r="E65">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.2084239739694238E-6</v>
+      </c>
+      <c r="F65" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I65">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D66">
+        <v>9.8054607805513911E-3</v>
+      </c>
+      <c r="E66">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932442902E-6</v>
+      </c>
+      <c r="F66" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I66">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67">
+        <v>7.8097539999999972</v>
+      </c>
+      <c r="D67">
+        <v>9.8054607805513928E-3</v>
+      </c>
+      <c r="E67">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932442936E-6</v>
+      </c>
+      <c r="F67" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I67">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68">
+        <v>7.8097539999999972</v>
+      </c>
+      <c r="D68">
+        <v>9.8054607805514275E-3</v>
+      </c>
+      <c r="E68">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932443495E-6</v>
+      </c>
+      <c r="F68" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I68">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D69">
+        <v>9.8054607805514258E-3</v>
+      </c>
+      <c r="E69">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932443478E-6</v>
+      </c>
+      <c r="F69" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I69">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70">
+        <v>7.8097539999999972</v>
+      </c>
+      <c r="D70">
+        <v>9.8054607805514275E-3</v>
+      </c>
+      <c r="E70">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932443495E-6</v>
+      </c>
+      <c r="F70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I70">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D71">
+        <v>9.8054607805511864E-3</v>
+      </c>
+      <c r="E71">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932439565E-6</v>
+      </c>
+      <c r="F71" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I71">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D72">
+        <v>9.8054607805514258E-3</v>
+      </c>
+      <c r="E72">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932443478E-6</v>
+      </c>
+      <c r="F72" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I72">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D73">
+        <v>9.8054607805514258E-3</v>
+      </c>
+      <c r="E73">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932443478E-6</v>
+      </c>
+      <c r="F73" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I73">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D74">
+        <v>9.8054607805514258E-3</v>
+      </c>
+      <c r="E74">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932443478E-6</v>
+      </c>
+      <c r="F74" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I74">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75">
+        <v>7.8097539999999972</v>
+      </c>
+      <c r="D75">
+        <v>9.8054607805511899E-3</v>
+      </c>
+      <c r="E75">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932439616E-6</v>
+      </c>
+      <c r="F75" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I75">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D76">
+        <v>9.8054607805513911E-3</v>
+      </c>
+      <c r="E76">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932442902E-6</v>
+      </c>
+      <c r="F76" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I76">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D77">
+        <v>9.8054607805513911E-3</v>
+      </c>
+      <c r="E77">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932442902E-6</v>
+      </c>
+      <c r="F77" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I77">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D78">
+        <v>9.8054607805513911E-3</v>
+      </c>
+      <c r="E78">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932442902E-6</v>
+      </c>
+      <c r="F78" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I78">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79">
+        <v>7.8097539999999972</v>
+      </c>
+      <c r="D79">
+        <v>9.8054607805513928E-3</v>
+      </c>
+      <c r="E79">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932442936E-6</v>
+      </c>
+      <c r="F79" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I79">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80">
+        <v>7.7205999999999992</v>
+      </c>
+      <c r="D80">
+        <v>9.6936369259886558E-3</v>
+      </c>
+      <c r="E80">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.830549737740899E-6</v>
+      </c>
+      <c r="F80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I80">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81">
+        <v>7.7205999999999992</v>
+      </c>
+      <c r="D81">
+        <v>9.6936369259886558E-3</v>
+      </c>
+      <c r="E81">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.830549737740899E-6</v>
+      </c>
+      <c r="F81" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I81">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82">
+        <v>7.7205999999999992</v>
+      </c>
+      <c r="D82">
+        <v>9.6936369259886957E-3</v>
+      </c>
+      <c r="E82">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377409634E-6</v>
+      </c>
+      <c r="F82" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I82">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83">
+        <v>7.7205999999999992</v>
+      </c>
+      <c r="D83">
+        <v>9.6936369259886957E-3</v>
+      </c>
+      <c r="E83">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377409634E-6</v>
+      </c>
+      <c r="F83" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I83">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84">
+        <v>7.7205999999999992</v>
+      </c>
+      <c r="D84">
+        <v>9.6936369259886558E-3</v>
+      </c>
+      <c r="E84">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.830549737740899E-6</v>
+      </c>
+      <c r="F84" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I84">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85">
+        <v>7.7205999999999966</v>
+      </c>
+      <c r="D85">
+        <v>9.6936369260000477E-3</v>
+      </c>
+      <c r="E85">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377593033E-6</v>
+      </c>
+      <c r="F85" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I85">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86">
+        <v>7.7205999999999966</v>
+      </c>
+      <c r="D86">
+        <v>9.6936369260000495E-3</v>
+      </c>
+      <c r="E86">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377593067E-6</v>
+      </c>
+      <c r="F86" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I86">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87">
+        <v>7.7205999999999966</v>
+      </c>
+      <c r="D87">
+        <v>9.6936369260000495E-3</v>
+      </c>
+      <c r="E87">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377593067E-6</v>
+      </c>
+      <c r="F87" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I87">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88">
+        <v>7.7205999999999966</v>
+      </c>
+      <c r="D88">
+        <v>9.6936369260000477E-3</v>
+      </c>
+      <c r="E88">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377593033E-6</v>
+      </c>
+      <c r="F88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" t="s">
+        <v>9</v>
+      </c>
+      <c r="H88">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I88">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89">
+        <v>7.7205999999999966</v>
+      </c>
+      <c r="D89">
+        <v>9.6936369260000477E-3</v>
+      </c>
+      <c r="E89">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>7.8305497377593033E-6</v>
+      </c>
+      <c r="F89" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" t="s">
+        <v>9</v>
+      </c>
+      <c r="H89">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I89">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90">
+        <v>7.8097539999999972</v>
+      </c>
+      <c r="D90">
+        <v>9.8054607805514084E-3</v>
+      </c>
+      <c r="E90">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.012255093244319E-6</v>
+      </c>
+      <c r="F90" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" t="s">
+        <v>9</v>
+      </c>
+      <c r="H90">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I90">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D91">
+        <v>9.8054607805514067E-3</v>
+      </c>
+      <c r="E91">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932443156E-6</v>
+      </c>
+      <c r="F91" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" t="s">
+        <v>9</v>
+      </c>
+      <c r="H91">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I91">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92">
+        <v>7.8097539999999972</v>
+      </c>
+      <c r="D92">
+        <v>9.8054607805514084E-3</v>
+      </c>
+      <c r="E92">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.012255093244319E-6</v>
+      </c>
+      <c r="F92" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I92">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D93">
+        <v>9.8054607805511691E-3</v>
+      </c>
+      <c r="E93">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932439277E-6</v>
+      </c>
+      <c r="F93" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I93">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D94">
+        <v>9.8054607805514067E-3</v>
+      </c>
+      <c r="E94">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932443156E-6</v>
+      </c>
+      <c r="F94" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I94">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D95">
+        <v>9.8054607805514067E-3</v>
+      </c>
+      <c r="E95">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932443156E-6</v>
+      </c>
+      <c r="F95" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" t="s">
+        <v>9</v>
+      </c>
+      <c r="H95">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I95">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D96">
+        <v>9.8054607805514067E-3</v>
+      </c>
+      <c r="E96">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932443156E-6</v>
+      </c>
+      <c r="F96" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I96">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97">
+        <v>7.8097539999999972</v>
+      </c>
+      <c r="D97">
+        <v>9.8054607805511708E-3</v>
+      </c>
+      <c r="E97">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932439311E-6</v>
+      </c>
+      <c r="F97" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I97">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D98">
+        <v>9.8054607805513755E-3</v>
+      </c>
+      <c r="E98">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932442648E-6</v>
+      </c>
+      <c r="F98" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I98">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D99">
+        <v>9.8054607805513755E-3</v>
+      </c>
+      <c r="E99">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932442648E-6</v>
+      </c>
+      <c r="F99" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" t="s">
+        <v>9</v>
+      </c>
+      <c r="H99">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I99">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100">
+        <v>7.8097539999999963</v>
+      </c>
+      <c r="D100">
+        <v>9.8054607805513755E-3</v>
+      </c>
+      <c r="E100">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932442648E-6</v>
+      </c>
+      <c r="F100" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" t="s">
+        <v>9</v>
+      </c>
+      <c r="H100">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I100">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101">
+        <v>7.8097539999999972</v>
+      </c>
+      <c r="D101">
+        <v>9.8054607805513755E-3</v>
+      </c>
+      <c r="E101">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>8.0122550932442648E-6</v>
+      </c>
+      <c r="F101" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I101">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102">
+        <v>6.0479999999996066</v>
+      </c>
+      <c r="D102">
+        <v>8.9984438618306174E-3</v>
+      </c>
+      <c r="E102">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>6.7476659945430928E-6</v>
+      </c>
+      <c r="F102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" t="s">
+        <v>9</v>
+      </c>
+      <c r="H102">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I102">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103">
+        <v>12.047999999999609</v>
+      </c>
+      <c r="D103">
+        <v>1.7906986674258652E-2</v>
+      </c>
+      <c r="E103">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>2.6721680979339742E-5</v>
+      </c>
+      <c r="F103" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" t="s">
+        <v>9</v>
+      </c>
+      <c r="H103">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I103">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104">
+        <v>12.047999999999609</v>
+      </c>
+      <c r="D104">
+        <v>1.7906986674258652E-2</v>
+      </c>
+      <c r="E104">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>2.6721680979339742E-5</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" t="s">
+        <v>9</v>
+      </c>
+      <c r="H104">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I104">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105">
+        <v>12.047999999999609</v>
+      </c>
+      <c r="D105">
+        <v>1.7906986674258652E-2</v>
+      </c>
+      <c r="E105">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>2.6721680979339742E-5</v>
+      </c>
+      <c r="F105" t="s">
+        <v>8</v>
+      </c>
+      <c r="G105" t="s">
+        <v>9</v>
+      </c>
+      <c r="H105">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I105">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106">
+        <v>12.047999999999609</v>
+      </c>
+      <c r="D106">
+        <v>1.7906986674258652E-2</v>
+      </c>
+      <c r="E106">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>2.6721680979339742E-5</v>
+      </c>
+      <c r="F106" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" t="s">
+        <v>9</v>
+      </c>
+      <c r="H106">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I106">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107">
+        <v>12.047999999999609</v>
+      </c>
+      <c r="D107">
+        <v>1.7906986674258652E-2</v>
+      </c>
+      <c r="E107">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>2.6721680979339742E-5</v>
+      </c>
+      <c r="F107" t="s">
+        <v>8</v>
+      </c>
+      <c r="G107" t="s">
+        <v>9</v>
+      </c>
+      <c r="H107">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I107">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108">
+        <v>12.047999999999609</v>
+      </c>
+      <c r="D108">
+        <v>1.7906986674258652E-2</v>
+      </c>
+      <c r="E108">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>2.6721680979339742E-5</v>
+      </c>
+      <c r="F108" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" t="s">
+        <v>9</v>
+      </c>
+      <c r="H108">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I108">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109">
+        <v>12.047999999999609</v>
+      </c>
+      <c r="D109">
+        <v>1.7906986674258652E-2</v>
+      </c>
+      <c r="E109">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>2.6721680979339742E-5</v>
+      </c>
+      <c r="F109" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" t="s">
+        <v>9</v>
+      </c>
+      <c r="H109">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I109">
+        <v>10.43886566138889</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>117</v>
+      </c>
+      <c r="C110">
+        <v>12.047999999999609</v>
+      </c>
+      <c r="D110">
+        <v>1.7906986674258652E-2</v>
+      </c>
+      <c r="E110">
+        <f>1/12 *Table1[[#This Row],[Area '[m^2']]]^2</f>
+        <v>2.6721680979339742E-5</v>
+      </c>
+      <c r="F110" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110">
+        <v>63.444637298333333</v>
+      </c>
+      <c r="I110">
+        <v>10.43886566138889</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006058D0AA48D23246894A7F05A58C1AAF" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f7edab56adb7a38e1a0abb428cd7600e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="57c8932b-c139-4b3f-9aa2-693b86414d5a" xmlns:ns3="4e694f54-afb1-48f4-9f94-d0679d5660e6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c282558acf5b9cb6ab923675cadd8154" ns2:_="" ns3:_="">
+    <xsd:import namespace="57c8932b-c139-4b3f-9aa2-693b86414d5a"/>
+    <xsd:import namespace="4e694f54-afb1-48f4-9f94-d0679d5660e6"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="57c8932b-c139-4b3f-9aa2-693b86414d5a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6e7bc199-5fe5-462f-a3d8-26f806c1f49a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4e694f54-afb1-48f4-9f94-d0679d5660e6" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{393c4456-25e4-450b-a128-7a9c6367854b}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="4e694f54-afb1-48f4-9f94-d0679d5660e6">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4e694f54-afb1-48f4-9f94-d0679d5660e6" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="57c8932b-c139-4b3f-9aa2-693b86414d5a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C84BA780-F1A9-4843-9025-14998C61B538}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50B14C09-0CFD-49ED-8330-906196EC902A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="57c8932b-c139-4b3f-9aa2-693b86414d5a"/>
+    <ds:schemaRef ds:uri="4e694f54-afb1-48f4-9f94-d0679d5660e6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{332E1C03-33AE-40AC-BF9A-65ED73982D75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4e694f54-afb1-48f4-9f94-d0679d5660e6"/>
+    <ds:schemaRef ds:uri="57c8932b-c139-4b3f-9aa2-693b86414d5a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>